--- a/dataExcel/【AK-47 _ 复古浪潮 (久经沙场)】悠悠有品近1个月-总览.xlsx
+++ b/dataExcel/【AK-47 _ 复古浪潮 (久经沙场)】悠悠有品近1个月-总览.xlsx
@@ -431,16 +431,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-17 16:26:31</v>
+        <v>2023-09-19 01:34:55</v>
       </c>
       <c r="B8">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>25.22</v>
+        <v>26.46</v>
       </c>
       <c r="D8">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -449,27 +449,27 @@
         <v>0.01</v>
       </c>
       <c r="G8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8">
-        <v>19.89</v>
+        <v>19.6</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-17 20:06:00</v>
+        <v>2023-09-19 05:15:51</v>
       </c>
       <c r="B9">
-        <v>20.79</v>
+        <v>21.6</v>
       </c>
       <c r="C9">
-        <v>25.22</v>
+        <v>25.87</v>
       </c>
       <c r="D9">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -478,7 +478,7 @@
         <v>0.01</v>
       </c>
       <c r="G9">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>19.6</v>
@@ -489,16 +489,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-17 23:44:35</v>
+        <v>2023-09-19 08:50:49</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>21.39</v>
       </c>
       <c r="C10">
-        <v>25.22</v>
+        <v>25.87</v>
       </c>
       <c r="D10">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E10">
         <v>0.01</v>
@@ -507,27 +507,27 @@
         <v>0.01</v>
       </c>
       <c r="G10">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-17 23:53:03</v>
+        <v>2023-09-19 12:32:46</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>21.39</v>
       </c>
       <c r="C11">
-        <v>25.22</v>
+        <v>25.87</v>
       </c>
       <c r="D11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E11">
         <v>0.01</v>
@@ -536,27 +536,27 @@
         <v>0.01</v>
       </c>
       <c r="G11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11">
         <v>19.6</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-18 03:33:41</v>
+        <v>2023-09-19 16:11:41</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>20.88</v>
       </c>
       <c r="C12">
-        <v>26.46</v>
+        <v>25.87</v>
       </c>
       <c r="D12">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -565,10 +565,10 @@
         <v>0.01</v>
       </c>
       <c r="G12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H12">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -576,16 +576,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-18 07:05:44</v>
+        <v>2023-09-19 19:49:10</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>20.98</v>
       </c>
       <c r="C13">
-        <v>26.46</v>
+        <v>25.87</v>
       </c>
       <c r="D13">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -594,27 +594,27 @@
         <v>0.01</v>
       </c>
       <c r="G13">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H13">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-18 10:45:04</v>
+        <v>2023-09-19 23:27:58</v>
       </c>
       <c r="B14">
         <v>21</v>
       </c>
       <c r="C14">
-        <v>26.46</v>
+        <v>25.87</v>
       </c>
       <c r="D14">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -623,10 +623,10 @@
         <v>0.01</v>
       </c>
       <c r="G14">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H14">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -634,16 +634,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-18 10:54:35</v>
+        <v>2023-09-20 03:09:40</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="C15">
-        <v>26.46</v>
+        <v>23.14</v>
       </c>
       <c r="D15">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E15">
         <v>0.01</v>
@@ -652,27 +652,27 @@
         <v>0.01</v>
       </c>
       <c r="G15">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H15">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-18 14:34:54</v>
+        <v>2023-09-20 06:47:29</v>
       </c>
       <c r="B16">
-        <v>20.99</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>26.46</v>
+        <v>23.14</v>
       </c>
       <c r="D16">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E16">
         <v>0.01</v>
@@ -681,27 +681,27 @@
         <v>0.01</v>
       </c>
       <c r="G16">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H16">
         <v>19.7</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-18 18:15:36</v>
+        <v>2023-09-20 10:26:39</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>21.49</v>
       </c>
       <c r="C17">
-        <v>26.46</v>
+        <v>23.14</v>
       </c>
       <c r="D17">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="E17">
         <v>0.01</v>
@@ -710,27 +710,27 @@
         <v>0.01</v>
       </c>
       <c r="G17">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H17">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-18 21:57:53</v>
+        <v>2023-09-20 14:05:50</v>
       </c>
       <c r="B18">
-        <v>20.89</v>
+        <v>21.38</v>
       </c>
       <c r="C18">
-        <v>26.46</v>
+        <v>23.14</v>
       </c>
       <c r="D18">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="E18">
         <v>0.01</v>
@@ -739,27 +739,27 @@
         <v>0.01</v>
       </c>
       <c r="G18">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-19 01:34:55</v>
+        <v>2023-09-20 14:14:42</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>21.38</v>
       </c>
       <c r="C19">
-        <v>26.46</v>
+        <v>23.14</v>
       </c>
       <c r="D19">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E19">
         <v>0.01</v>
@@ -768,27 +768,27 @@
         <v>0.01</v>
       </c>
       <c r="G19">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-19 05:15:51</v>
+        <v>2023-09-20 17:56:22</v>
       </c>
       <c r="B20">
-        <v>21.6</v>
+        <v>21.26</v>
       </c>
       <c r="C20">
-        <v>25.87</v>
+        <v>23.14</v>
       </c>
       <c r="D20">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E20">
         <v>0.01</v>
@@ -800,24 +800,24 @@
         <v>122</v>
       </c>
       <c r="H20">
-        <v>19.6</v>
+        <v>20.1</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-19 08:50:49</v>
+        <v>2023-09-20 18:03:39</v>
       </c>
       <c r="B21">
-        <v>21.39</v>
+        <v>21.26</v>
       </c>
       <c r="C21">
-        <v>25.87</v>
+        <v>23.14</v>
       </c>
       <c r="D21">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E21">
         <v>0.01</v>
@@ -826,27 +826,27 @@
         <v>0.01</v>
       </c>
       <c r="G21">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H21">
-        <v>19.7</v>
+        <v>20.1</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-19 12:32:46</v>
+        <v>2023-09-20 21:37:49</v>
       </c>
       <c r="B22">
-        <v>21.39</v>
+        <v>21.27</v>
       </c>
       <c r="C22">
-        <v>25.87</v>
+        <v>23.14</v>
       </c>
       <c r="D22">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E22">
         <v>0.01</v>
@@ -855,27 +855,27 @@
         <v>0.01</v>
       </c>
       <c r="G22">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="I22">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-19 16:11:41</v>
+        <v>2023-09-21 01:18:02</v>
       </c>
       <c r="B23">
-        <v>20.88</v>
+        <v>21.17</v>
       </c>
       <c r="C23">
-        <v>25.87</v>
+        <v>23.14</v>
       </c>
       <c r="D23">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E23">
         <v>0.01</v>
@@ -884,27 +884,27 @@
         <v>0.01</v>
       </c>
       <c r="G23">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H23">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-19 19:49:10</v>
+        <v>2023-09-21 04:59:30</v>
       </c>
       <c r="B24">
-        <v>20.98</v>
+        <v>21.17</v>
       </c>
       <c r="C24">
         <v>25.87</v>
       </c>
       <c r="D24">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E24">
         <v>0.01</v>
@@ -913,27 +913,27 @@
         <v>0.01</v>
       </c>
       <c r="G24">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H24">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="I24">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-19 23:27:58</v>
+        <v>2023-09-21 08:37:36</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>21.17</v>
       </c>
       <c r="C25">
         <v>25.87</v>
       </c>
       <c r="D25">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E25">
         <v>0.01</v>
@@ -942,27 +942,27 @@
         <v>0.01</v>
       </c>
       <c r="G25">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H25">
-        <v>19.6</v>
+        <v>20.2</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-20 03:09:40</v>
+        <v>2023-09-21 12:15:15</v>
       </c>
       <c r="B26">
-        <v>21.5</v>
+        <v>20.87</v>
       </c>
       <c r="C26">
-        <v>23.14</v>
+        <v>25.87</v>
       </c>
       <c r="D26">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E26">
         <v>0.01</v>
@@ -971,27 +971,27 @@
         <v>0.01</v>
       </c>
       <c r="G26">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H26">
-        <v>19.7</v>
+        <v>20.39</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-20 06:47:29</v>
+        <v>2023-09-21 15:54:33</v>
       </c>
       <c r="B27">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="C27">
-        <v>23.14</v>
+        <v>25.87</v>
       </c>
       <c r="D27">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E27">
         <v>0.01</v>
@@ -1000,27 +1000,27 @@
         <v>0.01</v>
       </c>
       <c r="G27">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H27">
-        <v>19.7</v>
+        <v>20.5</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-20 10:26:39</v>
+        <v>2023-09-21 19:34:50</v>
       </c>
       <c r="B28">
-        <v>21.49</v>
+        <v>21.17</v>
       </c>
       <c r="C28">
-        <v>23.14</v>
+        <v>25.87</v>
       </c>
       <c r="D28">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E28">
         <v>0.01</v>
@@ -1029,27 +1029,27 @@
         <v>0.01</v>
       </c>
       <c r="G28">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H28">
-        <v>19.8</v>
+        <v>20.5</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-20 14:05:50</v>
+        <v>2023-09-21 23:09:45</v>
       </c>
       <c r="B29">
-        <v>21.38</v>
+        <v>21.4</v>
       </c>
       <c r="C29">
-        <v>23.14</v>
+        <v>25.87</v>
       </c>
       <c r="D29">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E29">
         <v>0.01</v>
@@ -1058,27 +1058,27 @@
         <v>0.01</v>
       </c>
       <c r="G29">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H29">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-20 14:14:42</v>
+        <v>2023-09-22 02:47:43</v>
       </c>
       <c r="B30">
-        <v>21.38</v>
+        <v>21.5</v>
       </c>
       <c r="C30">
-        <v>23.14</v>
+        <v>25.48</v>
       </c>
       <c r="D30">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E30">
         <v>0.01</v>
@@ -1087,27 +1087,27 @@
         <v>0.01</v>
       </c>
       <c r="G30">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H30">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-20 17:56:22</v>
+        <v>2023-09-22 06:26:06</v>
       </c>
       <c r="B31">
-        <v>21.26</v>
+        <v>21.5</v>
       </c>
       <c r="C31">
-        <v>23.14</v>
+        <v>25.48</v>
       </c>
       <c r="D31">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E31">
         <v>0.01</v>
@@ -1116,27 +1116,27 @@
         <v>0.01</v>
       </c>
       <c r="G31">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H31">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-20 18:03:39</v>
+        <v>2023-09-22 10:08:22</v>
       </c>
       <c r="B32">
-        <v>21.26</v>
+        <v>21.5</v>
       </c>
       <c r="C32">
-        <v>23.14</v>
+        <v>25.48</v>
       </c>
       <c r="D32">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E32">
         <v>0.01</v>
@@ -1145,10 +1145,10 @@
         <v>0.01</v>
       </c>
       <c r="G32">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H32">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="I32">
         <v>9</v>
@@ -1156,16 +1156,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-20 21:37:49</v>
+        <v>2023-09-22 13:46:10</v>
       </c>
       <c r="B33">
-        <v>21.27</v>
+        <v>21.51</v>
       </c>
       <c r="C33">
-        <v>23.14</v>
+        <v>25.48</v>
       </c>
       <c r="D33">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E33">
         <v>0.01</v>
@@ -1174,27 +1174,27 @@
         <v>0.01</v>
       </c>
       <c r="G33">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H33">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="I33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-21 01:18:02</v>
+        <v>2023-09-22 17:25:14</v>
       </c>
       <c r="B34">
-        <v>21.17</v>
+        <v>20.9</v>
       </c>
       <c r="C34">
-        <v>23.14</v>
+        <v>25.48</v>
       </c>
       <c r="D34">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="E34">
         <v>0.01</v>
@@ -1203,27 +1203,27 @@
         <v>0.01</v>
       </c>
       <c r="G34">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H34">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="I34">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-21 04:59:30</v>
+        <v>2023-09-22 21:06:18</v>
       </c>
       <c r="B35">
-        <v>21.17</v>
+        <v>21.8</v>
       </c>
       <c r="C35">
-        <v>25.87</v>
+        <v>25.48</v>
       </c>
       <c r="D35">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E35">
         <v>0.01</v>
@@ -1232,27 +1232,27 @@
         <v>0.01</v>
       </c>
       <c r="G35">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H35">
         <v>20.2</v>
       </c>
       <c r="I35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-21 08:37:36</v>
+        <v>2023-09-23 00:42:07</v>
       </c>
       <c r="B36">
-        <v>21.17</v>
+        <v>21.8</v>
       </c>
       <c r="C36">
-        <v>25.87</v>
+        <v>25.48</v>
       </c>
       <c r="D36">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="E36">
         <v>0.01</v>
@@ -1261,27 +1261,27 @@
         <v>0.01</v>
       </c>
       <c r="G36">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H36">
         <v>20.2</v>
       </c>
       <c r="I36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-21 12:15:15</v>
+        <v>2023-09-23 04:20:30</v>
       </c>
       <c r="B37">
-        <v>20.87</v>
+        <v>21.7</v>
       </c>
       <c r="C37">
-        <v>25.87</v>
+        <v>25.55</v>
       </c>
       <c r="D37">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="E37">
         <v>0.01</v>
@@ -1290,27 +1290,27 @@
         <v>0.01</v>
       </c>
       <c r="G37">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H37">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="I37">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-21 15:54:33</v>
+        <v>2023-09-23 07:58:12</v>
       </c>
       <c r="B38">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="C38">
-        <v>25.87</v>
+        <v>25.55</v>
       </c>
       <c r="D38">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E38">
         <v>0.01</v>
@@ -1319,27 +1319,27 @@
         <v>0.01</v>
       </c>
       <c r="G38">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H38">
-        <v>20.5</v>
+        <v>20.39</v>
       </c>
       <c r="I38">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-21 19:34:50</v>
+        <v>2023-09-23 11:32:59</v>
       </c>
       <c r="B39">
-        <v>21.17</v>
+        <v>21.5</v>
       </c>
       <c r="C39">
-        <v>25.87</v>
+        <v>25.55</v>
       </c>
       <c r="D39">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="E39">
         <v>0.01</v>
@@ -1348,27 +1348,27 @@
         <v>0.01</v>
       </c>
       <c r="G39">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H39">
         <v>20.5</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-21 23:09:45</v>
+        <v>2023-09-23 15:09:53</v>
       </c>
       <c r="B40">
-        <v>21.4</v>
+        <v>21.87</v>
       </c>
       <c r="C40">
-        <v>25.87</v>
+        <v>25.55</v>
       </c>
       <c r="D40">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E40">
         <v>0.01</v>
@@ -1377,27 +1377,27 @@
         <v>0.01</v>
       </c>
       <c r="G40">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I40">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-22 02:47:43</v>
+        <v>2023-09-23 15:14:27</v>
       </c>
       <c r="B41">
-        <v>21.5</v>
+        <v>21.87</v>
       </c>
       <c r="C41">
-        <v>25.48</v>
+        <v>25.55</v>
       </c>
       <c r="D41">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E41">
         <v>0.01</v>
@@ -1406,24 +1406,24 @@
         <v>0.01</v>
       </c>
       <c r="G41">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-22 06:26:06</v>
+        <v>2023-09-23 18:55:12</v>
       </c>
       <c r="B42">
-        <v>21.5</v>
+        <v>21.58</v>
       </c>
       <c r="C42">
-        <v>25.48</v>
+        <v>25.55</v>
       </c>
       <c r="D42">
         <v>316</v>
@@ -1435,27 +1435,27 @@
         <v>0.01</v>
       </c>
       <c r="G42">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I42">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-22 10:08:22</v>
+        <v>2023-09-23 22:34:48</v>
       </c>
       <c r="B43">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>25.48</v>
+        <v>25.55</v>
       </c>
       <c r="D43">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E43">
         <v>0.01</v>
@@ -1464,27 +1464,27 @@
         <v>0.01</v>
       </c>
       <c r="G43">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="I43">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-22 13:46:10</v>
+        <v>2023-09-24 02:15:12</v>
       </c>
       <c r="B44">
-        <v>21.51</v>
+        <v>21.75</v>
       </c>
       <c r="C44">
-        <v>25.48</v>
+        <v>24.25</v>
       </c>
       <c r="D44">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E44">
         <v>0.01</v>
@@ -1493,27 +1493,27 @@
         <v>0.01</v>
       </c>
       <c r="G44">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H44">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-22 17:25:14</v>
+        <v>2023-09-24 05:54:20</v>
       </c>
       <c r="B45">
-        <v>20.9</v>
+        <v>21.74</v>
       </c>
       <c r="C45">
-        <v>25.48</v>
+        <v>24.25</v>
       </c>
       <c r="D45">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="E45">
         <v>0.01</v>
@@ -1522,27 +1522,27 @@
         <v>0.01</v>
       </c>
       <c r="G45">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H45">
-        <v>20.1</v>
+        <v>20.39</v>
       </c>
       <c r="I45">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-22 21:06:18</v>
+        <v>2023-09-24 09:30:10</v>
       </c>
       <c r="B46">
-        <v>21.8</v>
+        <v>21.74</v>
       </c>
       <c r="C46">
-        <v>25.48</v>
+        <v>24.25</v>
       </c>
       <c r="D46">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E46">
         <v>0.01</v>
@@ -1551,27 +1551,27 @@
         <v>0.01</v>
       </c>
       <c r="G46">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H46">
-        <v>20.2</v>
+        <v>20.39</v>
       </c>
       <c r="I46">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-23 00:42:07</v>
+        <v>2023-09-24 09:34:37</v>
       </c>
       <c r="B47">
-        <v>21.8</v>
+        <v>21.74</v>
       </c>
       <c r="C47">
-        <v>25.48</v>
+        <v>24.25</v>
       </c>
       <c r="D47">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E47">
         <v>0.01</v>
@@ -1580,10 +1580,10 @@
         <v>0.01</v>
       </c>
       <c r="G47">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H47">
-        <v>20.2</v>
+        <v>20.39</v>
       </c>
       <c r="I47">
         <v>13</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-23 04:20:30</v>
+        <v>2023-09-24 13:11:22</v>
       </c>
       <c r="B48">
-        <v>21.7</v>
+        <v>21.75</v>
       </c>
       <c r="C48">
-        <v>25.55</v>
+        <v>24.25</v>
       </c>
       <c r="D48">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E48">
         <v>0.01</v>
@@ -1609,27 +1609,27 @@
         <v>0.01</v>
       </c>
       <c r="G48">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H48">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="I48">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-23 07:58:12</v>
+        <v>2023-09-24 16:47:26</v>
       </c>
       <c r="B49">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="C49">
-        <v>25.55</v>
+        <v>24.25</v>
       </c>
       <c r="D49">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E49">
         <v>0.01</v>
@@ -1638,27 +1638,27 @@
         <v>0.01</v>
       </c>
       <c r="G49">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H49">
-        <v>20.39</v>
+        <v>20.1</v>
       </c>
       <c r="I49">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-23 11:32:59</v>
+        <v>2023-09-24 20:27:30</v>
       </c>
       <c r="B50">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>25.55</v>
+        <v>24.25</v>
       </c>
       <c r="D50">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E50">
         <v>0.01</v>
@@ -1667,27 +1667,27 @@
         <v>0.01</v>
       </c>
       <c r="G50">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H50">
-        <v>20.5</v>
+        <v>20.39</v>
       </c>
       <c r="I50">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-23 15:09:53</v>
+        <v>2023-09-25 00:06:52</v>
       </c>
       <c r="B51">
-        <v>21.87</v>
+        <v>20.9</v>
       </c>
       <c r="C51">
-        <v>25.55</v>
+        <v>24.25</v>
       </c>
       <c r="D51">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="E51">
         <v>0.01</v>
@@ -1696,27 +1696,27 @@
         <v>0.01</v>
       </c>
       <c r="G51">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H51">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="I51">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-23 15:14:27</v>
+        <v>2023-09-25 03:48:27</v>
       </c>
       <c r="B52">
-        <v>21.87</v>
+        <v>21.3</v>
       </c>
       <c r="C52">
-        <v>25.55</v>
+        <v>25.61</v>
       </c>
       <c r="D52">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E52">
         <v>0.01</v>
@@ -1725,27 +1725,27 @@
         <v>0.01</v>
       </c>
       <c r="G52">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H52">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="I52">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-23 18:55:12</v>
+        <v>2023-09-25 07:26:40</v>
       </c>
       <c r="B53">
-        <v>21.58</v>
+        <v>21.3</v>
       </c>
       <c r="C53">
-        <v>25.55</v>
+        <v>25.61</v>
       </c>
       <c r="D53">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E53">
         <v>0.01</v>
@@ -1754,27 +1754,27 @@
         <v>0.01</v>
       </c>
       <c r="G53">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H53">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="I53">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-23 22:34:48</v>
+        <v>2023-09-25 11:07:32</v>
       </c>
       <c r="B54">
         <v>21</v>
       </c>
       <c r="C54">
-        <v>25.55</v>
+        <v>25.61</v>
       </c>
       <c r="D54">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E54">
         <v>0.01</v>
@@ -1783,27 +1783,27 @@
         <v>0.01</v>
       </c>
       <c r="G54">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H54">
-        <v>20.39</v>
+        <v>20.6</v>
       </c>
       <c r="I54">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-24 02:15:12</v>
+        <v>2023-09-25 14:43:19</v>
       </c>
       <c r="B55">
-        <v>21.75</v>
+        <v>21.8</v>
       </c>
       <c r="C55">
-        <v>24.25</v>
+        <v>25.61</v>
       </c>
       <c r="D55">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E55">
         <v>0.01</v>
@@ -1812,27 +1812,27 @@
         <v>0.01</v>
       </c>
       <c r="G55">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H55">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="I55">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-24 05:54:20</v>
+        <v>2023-09-25 18:19:33</v>
       </c>
       <c r="B56">
-        <v>21.74</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>24.25</v>
+        <v>25.61</v>
       </c>
       <c r="D56">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="E56">
         <v>0.01</v>
@@ -1841,27 +1841,27 @@
         <v>0.01</v>
       </c>
       <c r="G56">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H56">
-        <v>20.39</v>
+        <v>20.2</v>
       </c>
       <c r="I56">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-24 09:30:10</v>
+        <v>2023-09-25 21:58:25</v>
       </c>
       <c r="B57">
-        <v>21.74</v>
+        <v>21.8</v>
       </c>
       <c r="C57">
-        <v>24.25</v>
+        <v>25.61</v>
       </c>
       <c r="D57">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E57">
         <v>0.01</v>
@@ -1870,27 +1870,27 @@
         <v>0.01</v>
       </c>
       <c r="G57">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H57">
-        <v>20.39</v>
+        <v>20.2</v>
       </c>
       <c r="I57">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-24 09:34:37</v>
+        <v>2023-09-26 01:35:56</v>
       </c>
       <c r="B58">
-        <v>21.74</v>
+        <v>21.8</v>
       </c>
       <c r="C58">
-        <v>24.25</v>
+        <v>25.61</v>
       </c>
       <c r="D58">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E58">
         <v>0.01</v>
@@ -1899,27 +1899,27 @@
         <v>0.01</v>
       </c>
       <c r="G58">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H58">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="I58">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-24 13:11:22</v>
+        <v>2023-09-26 05:16:50</v>
       </c>
       <c r="B59">
-        <v>21.75</v>
+        <v>21.9</v>
       </c>
       <c r="C59">
-        <v>24.25</v>
+        <v>25.03</v>
       </c>
       <c r="D59">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E59">
         <v>0.01</v>
@@ -1928,27 +1928,27 @@
         <v>0.01</v>
       </c>
       <c r="G59">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H59">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="I59">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-24 16:47:26</v>
+        <v>2023-09-26 08:57:00</v>
       </c>
       <c r="B60">
-        <v>21.4</v>
+        <v>21.88</v>
       </c>
       <c r="C60">
-        <v>24.25</v>
+        <v>25.03</v>
       </c>
       <c r="D60">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E60">
         <v>0.01</v>
@@ -1957,10 +1957,10 @@
         <v>0.01</v>
       </c>
       <c r="G60">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H60">
-        <v>20.1</v>
+        <v>20.39</v>
       </c>
       <c r="I60">
         <v>12</v>
@@ -1968,16 +1968,16 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 20:27:30</v>
+        <v>2023-09-26 12:37:26</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>21.89</v>
       </c>
       <c r="C61">
-        <v>24.25</v>
+        <v>25.03</v>
       </c>
       <c r="D61">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E61">
         <v>0.01</v>
@@ -1986,27 +1986,27 @@
         <v>0.01</v>
       </c>
       <c r="G61">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H61">
-        <v>20.39</v>
+        <v>20.5</v>
       </c>
       <c r="I61">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-25 00:06:52</v>
+        <v>2023-09-26 16:17:52</v>
       </c>
       <c r="B62">
-        <v>20.9</v>
+        <v>21.5</v>
       </c>
       <c r="C62">
-        <v>24.25</v>
+        <v>25.03</v>
       </c>
       <c r="D62">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E62">
         <v>0.01</v>
@@ -2015,27 +2015,27 @@
         <v>0.01</v>
       </c>
       <c r="G62">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H62">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I62">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-25 03:48:27</v>
+        <v>2023-09-26 19:56:08</v>
       </c>
       <c r="B63">
-        <v>21.3</v>
+        <v>21.75</v>
       </c>
       <c r="C63">
-        <v>25.61</v>
+        <v>25.03</v>
       </c>
       <c r="D63">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E63">
         <v>0.01</v>
@@ -2044,10 +2044,10 @@
         <v>0.01</v>
       </c>
       <c r="G63">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H63">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I63">
         <v>10</v>
@@ -2055,16 +2055,16 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-25 07:26:40</v>
+        <v>2023-09-26 23:31:38</v>
       </c>
       <c r="B64">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="C64">
-        <v>25.61</v>
+        <v>25.03</v>
       </c>
       <c r="D64">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E64">
         <v>0.01</v>
@@ -2073,10 +2073,10 @@
         <v>0.01</v>
       </c>
       <c r="G64">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H64">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I64">
         <v>10</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 11:07:32</v>
+        <v>2023-09-26 23:35:46</v>
       </c>
       <c r="B65">
-        <v>21</v>
+        <v>21.8</v>
       </c>
       <c r="C65">
-        <v>25.61</v>
+        <v>25.03</v>
       </c>
       <c r="D65">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E65">
         <v>0.01</v>
@@ -2102,24 +2102,24 @@
         <v>0.01</v>
       </c>
       <c r="G65">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H65">
-        <v>20.6</v>
+        <v>20.2</v>
       </c>
       <c r="I65">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-25 14:43:19</v>
+        <v>2023-09-27 03:07:47</v>
       </c>
       <c r="B66">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="C66">
-        <v>25.61</v>
+        <v>25.87</v>
       </c>
       <c r="D66">
         <v>296</v>
@@ -2131,10 +2131,10 @@
         <v>0.01</v>
       </c>
       <c r="G66">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H66">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="I66">
         <v>10</v>
@@ -2142,16 +2142,16 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-25 18:19:33</v>
+        <v>2023-09-27 03:12:42</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>25.61</v>
+        <v>25.87</v>
       </c>
       <c r="D67">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E67">
         <v>0.01</v>
@@ -2160,27 +2160,27 @@
         <v>0.01</v>
       </c>
       <c r="G67">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H67">
         <v>20.2</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 21:58:25</v>
+        <v>2023-09-27 06:48:40</v>
       </c>
       <c r="B68">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>25.61</v>
+        <v>25.87</v>
       </c>
       <c r="D68">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E68">
         <v>0.01</v>
@@ -2189,27 +2189,27 @@
         <v>0.01</v>
       </c>
       <c r="G68">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H68">
         <v>20.2</v>
       </c>
       <c r="I68">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-26 01:35:56</v>
+        <v>2023-09-27 10:29:10</v>
       </c>
       <c r="B69">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="C69">
-        <v>25.61</v>
+        <v>25.87</v>
       </c>
       <c r="D69">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E69">
         <v>0.01</v>
@@ -2218,27 +2218,27 @@
         <v>0.01</v>
       </c>
       <c r="G69">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H69">
         <v>20.3</v>
       </c>
       <c r="I69">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-26 05:16:50</v>
+        <v>2023-09-27 14:07:01</v>
       </c>
       <c r="B70">
-        <v>21.9</v>
+        <v>22.5</v>
       </c>
       <c r="C70">
-        <v>25.03</v>
+        <v>25.87</v>
       </c>
       <c r="D70">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E70">
         <v>0.01</v>
@@ -2247,27 +2247,27 @@
         <v>0.01</v>
       </c>
       <c r="G70">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H70">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I70">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-26 08:57:00</v>
+        <v>2023-09-27 17:48:52</v>
       </c>
       <c r="B71">
-        <v>21.88</v>
+        <v>22.49</v>
       </c>
       <c r="C71">
-        <v>25.03</v>
+        <v>25.87</v>
       </c>
       <c r="D71">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="E71">
         <v>0.01</v>
@@ -2276,10 +2276,10 @@
         <v>0.01</v>
       </c>
       <c r="G71">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H71">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="I71">
         <v>12</v>
@@ -2287,16 +2287,16 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-26 12:37:26</v>
+        <v>2023-09-27 21:28:56</v>
       </c>
       <c r="B72">
-        <v>21.89</v>
+        <v>22.99</v>
       </c>
       <c r="C72">
-        <v>25.03</v>
+        <v>25.87</v>
       </c>
       <c r="D72">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="E72">
         <v>0.01</v>
@@ -2305,27 +2305,27 @@
         <v>0.01</v>
       </c>
       <c r="G72">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H72">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="I72">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 16:17:52</v>
+        <v>2023-09-28 01:07:51</v>
       </c>
       <c r="B73">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>25.03</v>
+        <v>25.87</v>
       </c>
       <c r="D73">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="E73">
         <v>0.01</v>
@@ -2334,27 +2334,27 @@
         <v>0.01</v>
       </c>
       <c r="G73">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H73">
-        <v>20.2</v>
+        <v>20.39</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 19:56:08</v>
+        <v>2023-09-28 04:43:52</v>
       </c>
       <c r="B74">
-        <v>21.75</v>
+        <v>22.9</v>
       </c>
       <c r="C74">
-        <v>25.03</v>
+        <v>26.2</v>
       </c>
       <c r="D74">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="E74">
         <v>0.01</v>
@@ -2363,27 +2363,27 @@
         <v>0.01</v>
       </c>
       <c r="G74">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H74">
-        <v>20.2</v>
+        <v>20.39</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 23:31:38</v>
+        <v>2023-09-28 08:18:49</v>
       </c>
       <c r="B75">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>25.03</v>
+        <v>26.2</v>
       </c>
       <c r="D75">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E75">
         <v>0.01</v>
@@ -2392,27 +2392,27 @@
         <v>0.01</v>
       </c>
       <c r="G75">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H75">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 23:35:46</v>
+        <v>2023-09-28 11:58:27</v>
       </c>
       <c r="B76">
-        <v>21.8</v>
+        <v>23.33</v>
       </c>
       <c r="C76">
-        <v>25.03</v>
+        <v>26.2</v>
       </c>
       <c r="D76">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E76">
         <v>0.01</v>
@@ -2421,27 +2421,27 @@
         <v>0.01</v>
       </c>
       <c r="G76">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H76">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-27 03:07:47</v>
+        <v>2023-09-28 15:36:00</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>23.46</v>
       </c>
       <c r="C77">
-        <v>25.87</v>
+        <v>26.2</v>
       </c>
       <c r="D77">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E77">
         <v>0.01</v>
@@ -2450,27 +2450,27 @@
         <v>0.01</v>
       </c>
       <c r="G77">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H77">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-27 03:12:42</v>
+        <v>2023-09-28 19:11:01</v>
       </c>
       <c r="B78">
-        <v>22</v>
+        <v>22.68</v>
       </c>
       <c r="C78">
-        <v>25.87</v>
+        <v>26.2</v>
       </c>
       <c r="D78">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E78">
         <v>0.01</v>
@@ -2479,27 +2479,27 @@
         <v>0.01</v>
       </c>
       <c r="G78">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H78">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-27 06:48:40</v>
+        <v>2023-09-28 22:50:29</v>
       </c>
       <c r="B79">
-        <v>22</v>
+        <v>21.95</v>
       </c>
       <c r="C79">
-        <v>25.87</v>
+        <v>26.2</v>
       </c>
       <c r="D79">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E79">
         <v>0.01</v>
@@ -2508,10 +2508,10 @@
         <v>0.01</v>
       </c>
       <c r="G79">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H79">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="I79">
         <v>9</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-27 10:29:10</v>
+        <v>2023-09-29 02:30:32</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="C80">
-        <v>25.87</v>
+        <v>25.22</v>
       </c>
       <c r="D80">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="E80">
         <v>0.01</v>
@@ -2537,27 +2537,27 @@
         <v>0.01</v>
       </c>
       <c r="G80">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H80">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I80">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 14:07:01</v>
+        <v>2023-09-29 06:11:36</v>
       </c>
       <c r="B81">
-        <v>22.5</v>
+        <v>22.69</v>
       </c>
       <c r="C81">
-        <v>25.87</v>
+        <v>25.22</v>
       </c>
       <c r="D81">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E81">
         <v>0.01</v>
@@ -2566,27 +2566,27 @@
         <v>0.01</v>
       </c>
       <c r="G81">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H81">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 17:48:52</v>
+        <v>2023-09-29 09:53:16</v>
       </c>
       <c r="B82">
-        <v>22.49</v>
+        <v>22.68</v>
       </c>
       <c r="C82">
-        <v>25.87</v>
+        <v>25.22</v>
       </c>
       <c r="D82">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="E82">
         <v>0.01</v>
@@ -2598,24 +2598,24 @@
         <v>106</v>
       </c>
       <c r="H82">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I82">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 21:28:56</v>
+        <v>2023-09-29 09:59:44</v>
       </c>
       <c r="B83">
-        <v>22.99</v>
+        <v>22.68</v>
       </c>
       <c r="C83">
-        <v>25.87</v>
+        <v>25.22</v>
       </c>
       <c r="D83">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="E83">
         <v>0.01</v>
@@ -2624,27 +2624,27 @@
         <v>0.01</v>
       </c>
       <c r="G83">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H83">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I83">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-28 01:07:51</v>
+        <v>2023-09-29 13:36:50</v>
       </c>
       <c r="B84">
-        <v>23</v>
+        <v>22.69</v>
       </c>
       <c r="C84">
-        <v>25.87</v>
+        <v>25.22</v>
       </c>
       <c r="D84">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E84">
         <v>0.01</v>
@@ -2653,27 +2653,27 @@
         <v>0.01</v>
       </c>
       <c r="G84">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H84">
-        <v>20.39</v>
+        <v>20</v>
       </c>
       <c r="I84">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-28 04:43:52</v>
+        <v>2023-09-29 17:08:28</v>
       </c>
       <c r="B85">
-        <v>22.9</v>
+        <v>20.2</v>
       </c>
       <c r="C85">
-        <v>26.2</v>
+        <v>25.22</v>
       </c>
       <c r="D85">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E85">
         <v>0.01</v>
@@ -2682,27 +2682,27 @@
         <v>0.01</v>
       </c>
       <c r="G85">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H85">
-        <v>20.39</v>
+        <v>19.5</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-28 08:18:49</v>
+        <v>2023-09-29 17:14:09</v>
       </c>
       <c r="B86">
-        <v>23</v>
+        <v>20.3</v>
       </c>
       <c r="C86">
-        <v>26.2</v>
+        <v>25.22</v>
       </c>
       <c r="D86">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E86">
         <v>0.01</v>
@@ -2711,27 +2711,27 @@
         <v>0.01</v>
       </c>
       <c r="G86">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H86">
-        <v>20.6</v>
+        <v>19</v>
       </c>
       <c r="I86">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-28 11:58:27</v>
+        <v>2023-09-29 20:49:47</v>
       </c>
       <c r="B87">
-        <v>23.33</v>
+        <v>21.68</v>
       </c>
       <c r="C87">
-        <v>26.2</v>
+        <v>25.22</v>
       </c>
       <c r="D87">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E87">
         <v>0.01</v>
@@ -2740,27 +2740,27 @@
         <v>0.01</v>
       </c>
       <c r="G87">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H87">
-        <v>20.5</v>
+        <v>19.1</v>
       </c>
       <c r="I87">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 15:36:00</v>
+        <v>2023-09-30 00:28:46</v>
       </c>
       <c r="B88">
-        <v>23.46</v>
+        <v>21.89</v>
       </c>
       <c r="C88">
-        <v>26.2</v>
+        <v>25.22</v>
       </c>
       <c r="D88">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E88">
         <v>0.01</v>
@@ -2769,27 +2769,27 @@
         <v>0.01</v>
       </c>
       <c r="G88">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H88">
-        <v>20.5</v>
+        <v>19.2</v>
       </c>
       <c r="I88">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 19:11:01</v>
+        <v>2023-09-30 04:02:13</v>
       </c>
       <c r="B89">
-        <v>22.68</v>
+        <v>22.49</v>
       </c>
       <c r="C89">
-        <v>26.2</v>
+        <v>26.13</v>
       </c>
       <c r="D89">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E89">
         <v>0.01</v>
@@ -2798,27 +2798,27 @@
         <v>0.01</v>
       </c>
       <c r="G89">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H89">
-        <v>20.3</v>
+        <v>19.2</v>
       </c>
       <c r="I89">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 22:50:29</v>
+        <v>2023-09-30 07:41:59</v>
       </c>
       <c r="B90">
-        <v>21.95</v>
+        <v>19.93</v>
       </c>
       <c r="C90">
-        <v>26.2</v>
+        <v>26.13</v>
       </c>
       <c r="D90">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="E90">
         <v>0.01</v>
@@ -2827,27 +2827,27 @@
         <v>0.01</v>
       </c>
       <c r="G90">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H90">
-        <v>20.3</v>
+        <v>19.39</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-29 02:30:32</v>
+        <v>2023-09-30 11:21:55</v>
       </c>
       <c r="B91">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="C91">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D91">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E91">
         <v>0.01</v>
@@ -2859,7 +2859,7 @@
         <v>106</v>
       </c>
       <c r="H91">
-        <v>20.2</v>
+        <v>19.5</v>
       </c>
       <c r="I91">
         <v>7</v>
@@ -2867,16 +2867,16 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-29 06:11:36</v>
+        <v>2023-09-30 15:03:55</v>
       </c>
       <c r="B92">
-        <v>22.69</v>
+        <v>22.8</v>
       </c>
       <c r="C92">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D92">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E92">
         <v>0.01</v>
@@ -2888,7 +2888,7 @@
         <v>106</v>
       </c>
       <c r="H92">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="I92">
         <v>8</v>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-29 09:53:16</v>
+        <v>2023-09-30 18:42:02</v>
       </c>
       <c r="B93">
-        <v>22.68</v>
+        <v>19.89</v>
       </c>
       <c r="C93">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D93">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E93">
         <v>0.01</v>
@@ -2917,24 +2917,24 @@
         <v>106</v>
       </c>
       <c r="H93">
-        <v>20.2</v>
+        <v>10.1</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 09:59:44</v>
+        <v>2023-09-30 22:21:32</v>
       </c>
       <c r="B94">
-        <v>22.68</v>
+        <v>22.79</v>
       </c>
       <c r="C94">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D94">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E94">
         <v>0.01</v>
@@ -2943,27 +2943,27 @@
         <v>0.01</v>
       </c>
       <c r="G94">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H94">
-        <v>20.2</v>
+        <v>17.2</v>
       </c>
       <c r="I94">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 13:36:50</v>
+        <v>2023-10-01 02:01:42</v>
       </c>
       <c r="B95">
-        <v>22.69</v>
+        <v>23.88</v>
       </c>
       <c r="C95">
-        <v>25.22</v>
+        <v>26.13</v>
       </c>
       <c r="D95">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="E95">
         <v>0.01</v>
@@ -2972,27 +2972,27 @@
         <v>0.01</v>
       </c>
       <c r="G95">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H95">
-        <v>20</v>
+        <v>19.1</v>
       </c>
       <c r="I95">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 17:08:28</v>
+        <v>2023-10-01 05:39:28</v>
       </c>
       <c r="B96">
-        <v>20.2</v>
+        <v>23.88</v>
       </c>
       <c r="C96">
-        <v>25.22</v>
+        <v>29.12</v>
       </c>
       <c r="D96">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E96">
         <v>0.01</v>
@@ -3001,27 +3001,27 @@
         <v>0.01</v>
       </c>
       <c r="G96">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H96">
         <v>19.5</v>
       </c>
       <c r="I96">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-29 17:14:09</v>
+        <v>2023-10-01 09:13:44</v>
       </c>
       <c r="B97">
-        <v>20.3</v>
+        <v>23.78</v>
       </c>
       <c r="C97">
-        <v>25.22</v>
+        <v>29.12</v>
       </c>
       <c r="D97">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E97">
         <v>0.01</v>
@@ -3030,27 +3030,27 @@
         <v>0.01</v>
       </c>
       <c r="G97">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H97">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-29 20:49:47</v>
+        <v>2023-10-01 12:53:52</v>
       </c>
       <c r="B98">
-        <v>21.68</v>
+        <v>23.89</v>
       </c>
       <c r="C98">
-        <v>25.22</v>
+        <v>29.12</v>
       </c>
       <c r="D98">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E98">
         <v>0.01</v>
@@ -3059,27 +3059,27 @@
         <v>0.01</v>
       </c>
       <c r="G98">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H98">
-        <v>19.1</v>
+        <v>20</v>
       </c>
       <c r="I98">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-30 00:28:46</v>
+        <v>2023-10-01 16:33:14</v>
       </c>
       <c r="B99">
-        <v>21.89</v>
+        <v>23</v>
       </c>
       <c r="C99">
-        <v>25.22</v>
+        <v>29.12</v>
       </c>
       <c r="D99">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E99">
         <v>0.01</v>
@@ -3088,27 +3088,27 @@
         <v>0.01</v>
       </c>
       <c r="G99">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H99">
-        <v>19.2</v>
+        <v>20.3</v>
       </c>
       <c r="I99">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-30 04:02:13</v>
+        <v>2023-10-01 20:14:46</v>
       </c>
       <c r="B100">
-        <v>22.49</v>
+        <v>22.88</v>
       </c>
       <c r="C100">
-        <v>26.13</v>
+        <v>29.12</v>
       </c>
       <c r="D100">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E100">
         <v>0.01</v>
@@ -3117,27 +3117,27 @@
         <v>0.01</v>
       </c>
       <c r="G100">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H100">
-        <v>19.2</v>
+        <v>20.6</v>
       </c>
       <c r="I100">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 07:41:59</v>
+        <v>2023-10-01 23:54:15</v>
       </c>
       <c r="B101">
-        <v>19.93</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>26.13</v>
+        <v>29.12</v>
       </c>
       <c r="D101">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="E101">
         <v>0.01</v>
@@ -3146,27 +3146,27 @@
         <v>0.01</v>
       </c>
       <c r="G101">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H101">
-        <v>19.39</v>
+        <v>20.8</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 11:21:55</v>
+        <v>2023-10-02 03:33:31</v>
       </c>
       <c r="B102">
-        <v>22.8</v>
+        <v>23.8</v>
       </c>
       <c r="C102">
-        <v>26.13</v>
+        <v>28.99</v>
       </c>
       <c r="D102">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E102">
         <v>0.01</v>
@@ -3175,27 +3175,27 @@
         <v>0.01</v>
       </c>
       <c r="G102">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H102">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="I102">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-30 15:03:55</v>
+        <v>2023-10-02 07:09:04</v>
       </c>
       <c r="B103">
-        <v>22.8</v>
+        <v>23.79</v>
       </c>
       <c r="C103">
-        <v>26.13</v>
+        <v>28.99</v>
       </c>
       <c r="D103">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E103">
         <v>0.01</v>
@@ -3204,27 +3204,27 @@
         <v>0.01</v>
       </c>
       <c r="G103">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H103">
-        <v>19.8</v>
+        <v>21.1</v>
       </c>
       <c r="I103">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-30 18:42:02</v>
+        <v>2023-10-02 10:46:44</v>
       </c>
       <c r="B104">
-        <v>19.89</v>
+        <v>23.49</v>
       </c>
       <c r="C104">
-        <v>26.13</v>
+        <v>28.99</v>
       </c>
       <c r="D104">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E104">
         <v>0.01</v>
@@ -3233,27 +3233,27 @@
         <v>0.01</v>
       </c>
       <c r="G104">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H104">
-        <v>10.1</v>
+        <v>21.3</v>
       </c>
       <c r="I104">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-30 22:21:32</v>
+        <v>2023-10-02 14:25:44</v>
       </c>
       <c r="B105">
-        <v>22.79</v>
+        <v>23</v>
       </c>
       <c r="C105">
-        <v>26.13</v>
+        <v>28.99</v>
       </c>
       <c r="D105">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E105">
         <v>0.01</v>
@@ -3262,27 +3262,27 @@
         <v>0.01</v>
       </c>
       <c r="G105">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H105">
-        <v>17.2</v>
+        <v>21.5</v>
       </c>
       <c r="I105">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-10-01 02:01:42</v>
+        <v>2023-10-02 18:03:57</v>
       </c>
       <c r="B106">
-        <v>23.88</v>
+        <v>22.9</v>
       </c>
       <c r="C106">
-        <v>26.13</v>
+        <v>28.99</v>
       </c>
       <c r="D106">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E106">
         <v>0.01</v>
@@ -3291,27 +3291,27 @@
         <v>0.01</v>
       </c>
       <c r="G106">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H106">
-        <v>19.1</v>
+        <v>20.6</v>
       </c>
       <c r="I106">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-01 05:39:28</v>
+        <v>2023-10-02 21:44:13</v>
       </c>
       <c r="B107">
-        <v>23.88</v>
+        <v>23.49</v>
       </c>
       <c r="C107">
-        <v>29.12</v>
+        <v>28.99</v>
       </c>
       <c r="D107">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E107">
         <v>0.01</v>
@@ -3323,24 +3323,24 @@
         <v>102</v>
       </c>
       <c r="H107">
-        <v>19.5</v>
+        <v>20.6</v>
       </c>
       <c r="I107">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-01 09:13:44</v>
+        <v>2023-10-03 01:23:33</v>
       </c>
       <c r="B108">
-        <v>23.78</v>
+        <v>23</v>
       </c>
       <c r="C108">
-        <v>29.12</v>
+        <v>28.99</v>
       </c>
       <c r="D108">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E108">
         <v>0.01</v>
@@ -3349,27 +3349,27 @@
         <v>0.01</v>
       </c>
       <c r="G108">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H108">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="I108">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-01 12:53:52</v>
+        <v>2023-10-03 05:04:27</v>
       </c>
       <c r="B109">
-        <v>23.89</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>29.12</v>
+        <v>29.64</v>
       </c>
       <c r="D109">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E109">
         <v>0.01</v>
@@ -3378,27 +3378,27 @@
         <v>0.01</v>
       </c>
       <c r="G109">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H109">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="I109">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-01 16:33:14</v>
+        <v>2023-10-03 08:44:12</v>
       </c>
       <c r="B110">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="C110">
-        <v>29.12</v>
+        <v>29.64</v>
       </c>
       <c r="D110">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E110">
         <v>0.01</v>
@@ -3407,27 +3407,27 @@
         <v>0.01</v>
       </c>
       <c r="G110">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H110">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="I110">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-01 20:14:46</v>
+        <v>2023-10-03 12:23:22</v>
       </c>
       <c r="B111">
-        <v>22.88</v>
+        <v>23.4</v>
       </c>
       <c r="C111">
-        <v>29.12</v>
+        <v>29.64</v>
       </c>
       <c r="D111">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E111">
         <v>0.01</v>
@@ -3436,27 +3436,27 @@
         <v>0.01</v>
       </c>
       <c r="G111">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H111">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="I111">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-01 23:54:15</v>
+        <v>2023-10-03 16:01:50</v>
       </c>
       <c r="B112">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="C112">
-        <v>29.12</v>
+        <v>29.64</v>
       </c>
       <c r="D112">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E112">
         <v>0.01</v>
@@ -3468,24 +3468,24 @@
         <v>99</v>
       </c>
       <c r="H112">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="I112">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-02 03:33:31</v>
+        <v>2023-10-03 19:34:26</v>
       </c>
       <c r="B113">
-        <v>23.8</v>
+        <v>22.75</v>
       </c>
       <c r="C113">
-        <v>28.99</v>
+        <v>29.64</v>
       </c>
       <c r="D113">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E113">
         <v>0.01</v>
@@ -3505,16 +3505,16 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-02 07:09:04</v>
+        <v>2023-10-03 23:14:29</v>
       </c>
       <c r="B114">
-        <v>23.79</v>
+        <v>22.8</v>
       </c>
       <c r="C114">
-        <v>28.99</v>
+        <v>29.64</v>
       </c>
       <c r="D114">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="E114">
         <v>0.01</v>
@@ -3523,27 +3523,27 @@
         <v>0.01</v>
       </c>
       <c r="G114">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H114">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="I114">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-02 10:46:44</v>
+        <v>2023-10-04 02:55:48</v>
       </c>
       <c r="B115">
-        <v>23.49</v>
+        <v>23</v>
       </c>
       <c r="C115">
-        <v>28.99</v>
+        <v>31.07</v>
       </c>
       <c r="D115">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E115">
         <v>0.01</v>
@@ -3552,10 +3552,10 @@
         <v>0.01</v>
       </c>
       <c r="G115">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H115">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="I115">
         <v>15</v>
@@ -3563,16 +3563,16 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-02 14:25:44</v>
+        <v>2023-10-04 06:35:07</v>
       </c>
       <c r="B116">
-        <v>23</v>
+        <v>23.39</v>
       </c>
       <c r="C116">
-        <v>28.99</v>
+        <v>31.07</v>
       </c>
       <c r="D116">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E116">
         <v>0.01</v>
@@ -3584,7 +3584,7 @@
         <v>97</v>
       </c>
       <c r="H116">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="I116">
         <v>15</v>
@@ -3592,16 +3592,16 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-02 18:03:57</v>
+        <v>2023-10-04 10:16:16</v>
       </c>
       <c r="B117">
-        <v>22.9</v>
+        <v>23.39</v>
       </c>
       <c r="C117">
-        <v>28.99</v>
+        <v>31.07</v>
       </c>
       <c r="D117">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E117">
         <v>0.01</v>
@@ -3610,27 +3610,27 @@
         <v>0.01</v>
       </c>
       <c r="G117">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H117">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="I117">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-02 21:44:13</v>
+        <v>2023-10-04 13:55:20</v>
       </c>
       <c r="B118">
-        <v>23.49</v>
+        <v>23</v>
       </c>
       <c r="C118">
-        <v>28.99</v>
+        <v>31.07</v>
       </c>
       <c r="D118">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E118">
         <v>0.01</v>
@@ -3639,27 +3639,27 @@
         <v>0.01</v>
       </c>
       <c r="G118">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H118">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="I118">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-03 01:23:33</v>
+        <v>2023-10-04 17:33:50</v>
       </c>
       <c r="B119">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="C119">
-        <v>28.99</v>
+        <v>31.07</v>
       </c>
       <c r="D119">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E119">
         <v>0.01</v>
@@ -3668,27 +3668,27 @@
         <v>0.01</v>
       </c>
       <c r="G119">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H119">
-        <v>20.5</v>
+        <v>18.2</v>
       </c>
       <c r="I119">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-03 05:04:27</v>
+        <v>2023-10-04 21:06:55</v>
       </c>
       <c r="B120">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="C120">
-        <v>29.64</v>
+        <v>31.07</v>
       </c>
       <c r="D120">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="E120">
         <v>0.01</v>
@@ -3697,27 +3697,27 @@
         <v>0.01</v>
       </c>
       <c r="G120">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H120">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="I120">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 08:44:12</v>
+        <v>2023-10-04 21:10:56</v>
       </c>
       <c r="B121">
-        <v>22.9</v>
+        <v>22</v>
       </c>
       <c r="C121">
-        <v>29.64</v>
+        <v>31.07</v>
       </c>
       <c r="D121">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="E121">
         <v>0.01</v>
@@ -3726,10 +3726,10 @@
         <v>0.01</v>
       </c>
       <c r="G121">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H121">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="I121">
         <v>14</v>
@@ -3737,16 +3737,16 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-03 12:23:22</v>
+        <v>2023-10-05 00:48:43</v>
       </c>
       <c r="B122">
-        <v>23.4</v>
+        <v>22.7</v>
       </c>
       <c r="C122">
-        <v>29.64</v>
+        <v>31.07</v>
       </c>
       <c r="D122">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E122">
         <v>0.01</v>
@@ -3755,27 +3755,27 @@
         <v>0.01</v>
       </c>
       <c r="G122">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H122">
         <v>20.9</v>
       </c>
       <c r="I122">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-03 16:01:50</v>
+        <v>2023-10-05 04:26:23</v>
       </c>
       <c r="B123">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="C123">
-        <v>29.64</v>
+        <v>30.49</v>
       </c>
       <c r="D123">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E123">
         <v>0.01</v>
@@ -3784,27 +3784,27 @@
         <v>0.01</v>
       </c>
       <c r="G123">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H123">
         <v>21</v>
       </c>
       <c r="I123">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-03 19:34:26</v>
+        <v>2023-10-05 08:05:35</v>
       </c>
       <c r="B124">
-        <v>22.75</v>
+        <v>23</v>
       </c>
       <c r="C124">
-        <v>29.64</v>
+        <v>30.49</v>
       </c>
       <c r="D124">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E124">
         <v>0.01</v>
@@ -3813,10 +3813,10 @@
         <v>0.01</v>
       </c>
       <c r="G124">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H124">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="I124">
         <v>14</v>
@@ -3824,16 +3824,16 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-03 23:14:29</v>
+        <v>2023-10-05 11:48:02</v>
       </c>
       <c r="B125">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="C125">
-        <v>29.64</v>
+        <v>30.49</v>
       </c>
       <c r="D125">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E125">
         <v>0.01</v>
@@ -3845,24 +3845,24 @@
         <v>97</v>
       </c>
       <c r="H125">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="I125">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-04 02:55:48</v>
+        <v>2023-10-05 15:25:47</v>
       </c>
       <c r="B126">
-        <v>23</v>
+        <v>21.49</v>
       </c>
       <c r="C126">
-        <v>31.07</v>
+        <v>30.49</v>
       </c>
       <c r="D126">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="E126">
         <v>0.01</v>
@@ -3871,10 +3871,10 @@
         <v>0.01</v>
       </c>
       <c r="G126">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H126">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="I126">
         <v>15</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-04 06:35:07</v>
+        <v>2023-10-05 19:06:51</v>
       </c>
       <c r="B127">
-        <v>23.39</v>
+        <v>21.49</v>
       </c>
       <c r="C127">
-        <v>31.07</v>
+        <v>30.49</v>
       </c>
       <c r="D127">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="E127">
         <v>0.01</v>
@@ -3900,27 +3900,27 @@
         <v>0.01</v>
       </c>
       <c r="G127">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H127">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="I127">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 10:16:16</v>
+        <v>2023-10-05 22:45:48</v>
       </c>
       <c r="B128">
-        <v>23.39</v>
+        <v>21.9</v>
       </c>
       <c r="C128">
-        <v>31.07</v>
+        <v>30.49</v>
       </c>
       <c r="D128">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="E128">
         <v>0.01</v>
@@ -3932,24 +3932,24 @@
         <v>98</v>
       </c>
       <c r="H128">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="I128">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 13:55:20</v>
+        <v>2023-10-06 02:25:16</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129">
-        <v>31.07</v>
+        <v>29.38</v>
       </c>
       <c r="D129">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="E129">
         <v>0.01</v>
@@ -3958,27 +3958,27 @@
         <v>0.01</v>
       </c>
       <c r="G129">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H129">
-        <v>21.5</v>
+        <v>20.8</v>
       </c>
       <c r="I129">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-04 17:33:50</v>
+        <v>2023-10-06 06:05:22</v>
       </c>
       <c r="B130">
-        <v>23.6</v>
+        <v>22</v>
       </c>
       <c r="C130">
-        <v>31.07</v>
+        <v>29.38</v>
       </c>
       <c r="D130">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E130">
         <v>0.01</v>
@@ -3987,10 +3987,10 @@
         <v>0.01</v>
       </c>
       <c r="G130">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H130">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="I130">
         <v>12</v>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-04 21:06:55</v>
+        <v>2023-10-06 09:43:11</v>
       </c>
       <c r="B131">
-        <v>22.7</v>
+        <v>22</v>
       </c>
       <c r="C131">
-        <v>31.07</v>
+        <v>29.38</v>
       </c>
       <c r="D131">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E131">
         <v>0.01</v>
@@ -4016,10 +4016,10 @@
         <v>0.01</v>
       </c>
       <c r="G131">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H131">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="I131">
         <v>13</v>
@@ -4027,16 +4027,16 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-04 21:10:56</v>
+        <v>2023-10-06 13:18:39</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="C132">
-        <v>31.07</v>
+        <v>29.38</v>
       </c>
       <c r="D132">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E132">
         <v>0.01</v>
@@ -4045,10 +4045,10 @@
         <v>0.01</v>
       </c>
       <c r="G132">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H132">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="I132">
         <v>14</v>
@@ -4056,16 +4056,16 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-05 00:48:43</v>
+        <v>2023-10-06 16:57:08</v>
       </c>
       <c r="B133">
-        <v>22.7</v>
+        <v>21.4</v>
       </c>
       <c r="C133">
-        <v>31.07</v>
+        <v>29.38</v>
       </c>
       <c r="D133">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E133">
         <v>0.01</v>
@@ -4074,27 +4074,27 @@
         <v>0.01</v>
       </c>
       <c r="G133">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H133">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="I133">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 04:26:23</v>
+        <v>2023-10-06 20:35:53</v>
       </c>
       <c r="B134">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="C134">
-        <v>30.49</v>
+        <v>29.38</v>
       </c>
       <c r="D134">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E134">
         <v>0.01</v>
@@ -4103,27 +4103,27 @@
         <v>0.01</v>
       </c>
       <c r="G134">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H134">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="I134">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 08:05:35</v>
+        <v>2023-10-07 00:16:03</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>20.9</v>
       </c>
       <c r="C135">
-        <v>30.49</v>
+        <v>29.38</v>
       </c>
       <c r="D135">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E135">
         <v>0.01</v>
@@ -4135,7 +4135,7 @@
         <v>96</v>
       </c>
       <c r="H135">
-        <v>21.1</v>
+        <v>20.3</v>
       </c>
       <c r="I135">
         <v>14</v>
@@ -4143,16 +4143,16 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-05 11:48:02</v>
+        <v>2023-10-07 03:58:26</v>
       </c>
       <c r="B136">
-        <v>22.9</v>
+        <v>21.6</v>
       </c>
       <c r="C136">
-        <v>30.49</v>
+        <v>30.09</v>
       </c>
       <c r="D136">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E136">
         <v>0.01</v>
@@ -4161,27 +4161,27 @@
         <v>0.01</v>
       </c>
       <c r="G136">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H136">
-        <v>21.2</v>
+        <v>20.3</v>
       </c>
       <c r="I136">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-05 15:25:47</v>
+        <v>2023-10-07 07:36:30</v>
       </c>
       <c r="B137">
-        <v>21.49</v>
+        <v>21.5</v>
       </c>
       <c r="C137">
-        <v>30.49</v>
+        <v>30.09</v>
       </c>
       <c r="D137">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E137">
         <v>0.01</v>
@@ -4190,27 +4190,27 @@
         <v>0.01</v>
       </c>
       <c r="G137">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H137">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="I137">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-05 19:06:51</v>
+        <v>2023-10-07 11:13:53</v>
       </c>
       <c r="B138">
-        <v>21.49</v>
+        <v>21.6</v>
       </c>
       <c r="C138">
-        <v>30.49</v>
+        <v>30.09</v>
       </c>
       <c r="D138">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E138">
         <v>0.01</v>
@@ -4219,10 +4219,10 @@
         <v>0.01</v>
       </c>
       <c r="G138">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H138">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="I138">
         <v>14</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-05 22:45:48</v>
+        <v>2023-10-07 14:50:51</v>
       </c>
       <c r="B139">
         <v>21.9</v>
       </c>
       <c r="C139">
-        <v>30.49</v>
+        <v>30.09</v>
       </c>
       <c r="D139">
         <v>271</v>
@@ -4248,27 +4248,27 @@
         <v>0.01</v>
       </c>
       <c r="G139">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H139">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="I139">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 02:25:16</v>
+        <v>2023-10-07 18:27:23</v>
       </c>
       <c r="B140">
-        <v>22</v>
+        <v>22.88</v>
       </c>
       <c r="C140">
-        <v>29.38</v>
+        <v>30.09</v>
       </c>
       <c r="D140">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E140">
         <v>0.01</v>
@@ -4277,27 +4277,27 @@
         <v>0.01</v>
       </c>
       <c r="G140">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H140">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="I140">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 06:05:22</v>
+        <v>2023-10-07 22:04:39</v>
       </c>
       <c r="B141">
-        <v>22</v>
+        <v>21.1</v>
       </c>
       <c r="C141">
-        <v>29.38</v>
+        <v>30.09</v>
       </c>
       <c r="D141">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E141">
         <v>0.01</v>
@@ -4306,27 +4306,27 @@
         <v>0.01</v>
       </c>
       <c r="G141">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H141">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="I141">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 09:43:11</v>
+        <v>2023-10-08 01:44:26</v>
       </c>
       <c r="B142">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="C142">
-        <v>29.38</v>
+        <v>30.09</v>
       </c>
       <c r="D142">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E142">
         <v>0.01</v>
@@ -4335,27 +4335,27 @@
         <v>0.01</v>
       </c>
       <c r="G142">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H142">
         <v>20.8</v>
       </c>
       <c r="I142">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-06 13:18:39</v>
+        <v>2023-10-08 05:22:23</v>
       </c>
       <c r="B143">
-        <v>21.9</v>
+        <v>22.79</v>
       </c>
       <c r="C143">
-        <v>29.38</v>
+        <v>31.14</v>
       </c>
       <c r="D143">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E143">
         <v>0.01</v>
@@ -4364,27 +4364,27 @@
         <v>0.01</v>
       </c>
       <c r="G143">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H143">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="I143">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-06 16:57:08</v>
+        <v>2023-10-08 09:01:59</v>
       </c>
       <c r="B144">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="C144">
-        <v>29.38</v>
+        <v>31.14</v>
       </c>
       <c r="D144">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E144">
         <v>0.01</v>
@@ -4396,24 +4396,24 @@
         <v>96</v>
       </c>
       <c r="H144">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="I144">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-06 20:35:53</v>
+        <v>2023-10-08 09:07:45</v>
       </c>
       <c r="B145">
-        <v>21.3</v>
+        <v>22.5</v>
       </c>
       <c r="C145">
-        <v>29.38</v>
+        <v>31.14</v>
       </c>
       <c r="D145">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E145">
         <v>0.01</v>
@@ -4422,56 +4422,56 @@
         <v>0.01</v>
       </c>
       <c r="G145">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H145">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="I145">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-07 00:16:03</v>
+        <v>2023-10-08 12:49:52</v>
       </c>
       <c r="B146">
+        <v>22.99</v>
+      </c>
+      <c r="C146">
+        <v>31.14</v>
+      </c>
+      <c r="D146">
+        <v>269</v>
+      </c>
+      <c r="E146">
+        <v>0.01</v>
+      </c>
+      <c r="F146">
+        <v>0.01</v>
+      </c>
+      <c r="G146">
+        <v>99</v>
+      </c>
+      <c r="H146">
         <v>20.9</v>
       </c>
-      <c r="C146">
-        <v>29.38</v>
-      </c>
-      <c r="D146">
-        <v>271</v>
-      </c>
-      <c r="E146">
-        <v>0.01</v>
-      </c>
-      <c r="F146">
-        <v>0.01</v>
-      </c>
-      <c r="G146">
-        <v>96</v>
-      </c>
-      <c r="H146">
-        <v>20.3</v>
-      </c>
       <c r="I146">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 03:58:26</v>
+        <v>2023-10-08 16:27:42</v>
       </c>
       <c r="B147">
-        <v>21.6</v>
+        <v>22.9</v>
       </c>
       <c r="C147">
-        <v>30.09</v>
+        <v>31.14</v>
       </c>
       <c r="D147">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E147">
         <v>0.01</v>
@@ -4480,27 +4480,27 @@
         <v>0.01</v>
       </c>
       <c r="G147">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H147">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="I147">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 07:36:30</v>
+        <v>2023-10-08 20:06:22</v>
       </c>
       <c r="B148">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="C148">
-        <v>30.09</v>
+        <v>31.14</v>
       </c>
       <c r="D148">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E148">
         <v>0.01</v>
@@ -4509,27 +4509,27 @@
         <v>0.01</v>
       </c>
       <c r="G148">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H148">
-        <v>20.2</v>
+        <v>21</v>
       </c>
       <c r="I148">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-07 11:13:53</v>
+        <v>2023-10-08 23:39:07</v>
       </c>
       <c r="B149">
-        <v>21.6</v>
+        <v>23</v>
       </c>
       <c r="C149">
-        <v>30.09</v>
+        <v>31.14</v>
       </c>
       <c r="D149">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E149">
         <v>0.01</v>
@@ -4538,27 +4538,27 @@
         <v>0.01</v>
       </c>
       <c r="G149">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H149">
-        <v>20.3</v>
+        <v>21.2</v>
       </c>
       <c r="I149">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-07 14:50:51</v>
+        <v>2023-10-08 23:44:18</v>
       </c>
       <c r="B150">
-        <v>21.9</v>
+        <v>23</v>
       </c>
       <c r="C150">
-        <v>30.09</v>
+        <v>31.14</v>
       </c>
       <c r="D150">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E150">
         <v>0.01</v>
@@ -4567,27 +4567,27 @@
         <v>0.01</v>
       </c>
       <c r="G150">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H150">
-        <v>20.6</v>
+        <v>21.2</v>
       </c>
       <c r="I150">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-07 18:27:23</v>
+        <v>2023-10-09 03:20:50</v>
       </c>
       <c r="B151">
-        <v>22.88</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>30.09</v>
+        <v>32.11</v>
       </c>
       <c r="D151">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E151">
         <v>0.01</v>
@@ -4596,27 +4596,27 @@
         <v>0.01</v>
       </c>
       <c r="G151">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H151">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="I151">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-07 22:04:39</v>
+        <v>2023-10-09 06:59:39</v>
       </c>
       <c r="B152">
-        <v>21.1</v>
+        <v>22.99</v>
       </c>
       <c r="C152">
-        <v>30.09</v>
+        <v>32.11</v>
       </c>
       <c r="D152">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E152">
         <v>0.01</v>
@@ -4625,27 +4625,27 @@
         <v>0.01</v>
       </c>
       <c r="G152">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H152">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="I152">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-08 01:44:26</v>
+        <v>2023-10-09 10:39:33</v>
       </c>
       <c r="B153">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="C153">
-        <v>30.09</v>
+        <v>32.11</v>
       </c>
       <c r="D153">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E153">
         <v>0.01</v>
@@ -4654,27 +4654,27 @@
         <v>0.01</v>
       </c>
       <c r="G153">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H153">
-        <v>20.8</v>
+        <v>21.2</v>
       </c>
       <c r="I153">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-08 05:22:23</v>
+        <v>2023-10-09 14:19:10</v>
       </c>
       <c r="B154">
-        <v>22.79</v>
+        <v>22.9</v>
       </c>
       <c r="C154">
-        <v>31.14</v>
+        <v>32.11</v>
       </c>
       <c r="D154">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E154">
         <v>0.01</v>
@@ -4683,27 +4683,27 @@
         <v>0.01</v>
       </c>
       <c r="G154">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H154">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="I154">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-08 09:01:59</v>
+        <v>2023-10-09 18:01:09</v>
       </c>
       <c r="B155">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="C155">
-        <v>31.14</v>
+        <v>32.11</v>
       </c>
       <c r="D155">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E155">
         <v>0.01</v>
@@ -4712,27 +4712,27 @@
         <v>0.01</v>
       </c>
       <c r="G155">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H155">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="I155">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-08 09:07:45</v>
+        <v>2023-10-09 21:39:26</v>
       </c>
       <c r="B156">
-        <v>22.5</v>
+        <v>23.3</v>
       </c>
       <c r="C156">
-        <v>31.14</v>
+        <v>32.11</v>
       </c>
       <c r="D156">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E156">
         <v>0.01</v>
@@ -4741,27 +4741,27 @@
         <v>0.01</v>
       </c>
       <c r="G156">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H156">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="I156">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-08 12:49:52</v>
+        <v>2023-10-10 01:16:28</v>
       </c>
       <c r="B157">
-        <v>22.99</v>
+        <v>23.99</v>
       </c>
       <c r="C157">
-        <v>31.14</v>
+        <v>32.11</v>
       </c>
       <c r="D157">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="E157">
         <v>0.01</v>
@@ -4773,24 +4773,24 @@
         <v>99</v>
       </c>
       <c r="H157">
-        <v>20.9</v>
+        <v>21.6</v>
       </c>
       <c r="I157">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-08 16:27:42</v>
+        <v>2023-10-10 04:51:09</v>
       </c>
       <c r="B158">
-        <v>22.9</v>
+        <v>23.99</v>
       </c>
       <c r="C158">
-        <v>31.14</v>
+        <v>31.59</v>
       </c>
       <c r="D158">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E158">
         <v>0.01</v>
@@ -4799,10 +4799,10 @@
         <v>0.01</v>
       </c>
       <c r="G158">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H158">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="I158">
         <v>20</v>
@@ -4810,16 +4810,16 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-08 20:06:22</v>
+        <v>2023-10-10 08:29:41</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>23.69</v>
       </c>
       <c r="C159">
-        <v>31.14</v>
+        <v>31.59</v>
       </c>
       <c r="D159">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E159">
         <v>0.01</v>
@@ -4828,27 +4828,27 @@
         <v>0.01</v>
       </c>
       <c r="G159">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H159">
+        <v>21.7</v>
+      </c>
+      <c r="I159">
         <v>21</v>
-      </c>
-      <c r="I159">
-        <v>19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-08 23:39:07</v>
+        <v>2023-10-10 12:08:07</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>23.99</v>
       </c>
       <c r="C160">
-        <v>31.14</v>
+        <v>31.59</v>
       </c>
       <c r="D160">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E160">
         <v>0.01</v>
@@ -4857,10 +4857,10 @@
         <v>0.01</v>
       </c>
       <c r="G160">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H160">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="I160">
         <v>19</v>
@@ -4868,16 +4868,16 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-08 23:44:18</v>
+        <v>2023-10-10 15:50:08</v>
       </c>
       <c r="B161">
-        <v>23</v>
+        <v>23.79</v>
       </c>
       <c r="C161">
-        <v>31.14</v>
+        <v>31.59</v>
       </c>
       <c r="D161">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E161">
         <v>0.01</v>
@@ -4886,27 +4886,27 @@
         <v>0.01</v>
       </c>
       <c r="G161">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H161">
-        <v>21.2</v>
+        <v>22.2</v>
       </c>
       <c r="I161">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-09 03:20:50</v>
+        <v>2023-10-10 19:28:50</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>23.58</v>
       </c>
       <c r="C162">
-        <v>32.11</v>
+        <v>31.59</v>
       </c>
       <c r="D162">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E162">
         <v>0.01</v>
@@ -4915,27 +4915,27 @@
         <v>0.01</v>
       </c>
       <c r="G162">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H162">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="I162">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-09 06:59:39</v>
+        <v>2023-10-10 23:09:38</v>
       </c>
       <c r="B163">
-        <v>22.99</v>
+        <v>24</v>
       </c>
       <c r="C163">
-        <v>32.11</v>
+        <v>31.59</v>
       </c>
       <c r="D163">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E163">
         <v>0.01</v>
@@ -4944,27 +4944,27 @@
         <v>0.01</v>
       </c>
       <c r="G163">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H163">
-        <v>21.4</v>
+        <v>22.2</v>
       </c>
       <c r="I163">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-09 10:39:33</v>
+        <v>2023-10-11 02:49:41</v>
       </c>
       <c r="B164">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C164">
-        <v>32.11</v>
+        <v>32.36</v>
       </c>
       <c r="D164">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E164">
         <v>0.01</v>
@@ -4973,27 +4973,27 @@
         <v>0.01</v>
       </c>
       <c r="G164">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H164">
-        <v>21.2</v>
+        <v>22.4</v>
       </c>
       <c r="I164">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-09 14:19:10</v>
+        <v>2023-10-11 06:29:35</v>
       </c>
       <c r="B165">
-        <v>22.9</v>
+        <v>23.99</v>
       </c>
       <c r="C165">
-        <v>32.11</v>
+        <v>32.36</v>
       </c>
       <c r="D165">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E165">
         <v>0.01</v>
@@ -5002,27 +5002,27 @@
         <v>0.01</v>
       </c>
       <c r="G165">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H165">
-        <v>21.1</v>
+        <v>22.4</v>
       </c>
       <c r="I165">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-09 18:01:09</v>
+        <v>2023-10-11 10:08:29</v>
       </c>
       <c r="B166">
-        <v>21.7</v>
+        <v>22.9</v>
       </c>
       <c r="C166">
-        <v>32.11</v>
+        <v>32.36</v>
       </c>
       <c r="D166">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E166">
         <v>0.01</v>
@@ -5031,27 +5031,27 @@
         <v>0.01</v>
       </c>
       <c r="G166">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H166">
-        <v>21.5</v>
+        <v>22.6</v>
       </c>
       <c r="I166">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-09 21:39:26</v>
+        <v>2023-10-11 13:46:28</v>
       </c>
       <c r="B167">
-        <v>23.3</v>
+        <v>24.18</v>
       </c>
       <c r="C167">
-        <v>32.11</v>
+        <v>32.36</v>
       </c>
       <c r="D167">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E167">
         <v>0.01</v>
@@ -5060,27 +5060,27 @@
         <v>0.01</v>
       </c>
       <c r="G167">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H167">
-        <v>21.5</v>
+        <v>22.8</v>
       </c>
       <c r="I167">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-10 01:16:28</v>
+        <v>2023-10-11 17:20:56</v>
       </c>
       <c r="B168">
-        <v>23.99</v>
+        <v>23.7</v>
       </c>
       <c r="C168">
-        <v>32.11</v>
+        <v>32.36</v>
       </c>
       <c r="D168">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E168">
         <v>0.01</v>
@@ -5089,27 +5089,27 @@
         <v>0.01</v>
       </c>
       <c r="G168">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H168">
-        <v>21.6</v>
+        <v>22.2</v>
       </c>
       <c r="I168">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-10 04:51:09</v>
+        <v>2023-10-11 21:00:28</v>
       </c>
       <c r="B169">
-        <v>23.99</v>
+        <v>24.2</v>
       </c>
       <c r="C169">
-        <v>31.59</v>
+        <v>32.36</v>
       </c>
       <c r="D169">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E169">
         <v>0.01</v>
@@ -5118,27 +5118,27 @@
         <v>0.01</v>
       </c>
       <c r="G169">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H169">
-        <v>21.6</v>
+        <v>22.3</v>
       </c>
       <c r="I169">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-10 08:29:41</v>
+        <v>2023-10-12 00:39:18</v>
       </c>
       <c r="B170">
-        <v>23.69</v>
+        <v>24.9</v>
       </c>
       <c r="C170">
-        <v>31.59</v>
+        <v>32.36</v>
       </c>
       <c r="D170">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E170">
         <v>0.01</v>
@@ -5147,27 +5147,27 @@
         <v>0.01</v>
       </c>
       <c r="G170">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H170">
-        <v>21.7</v>
+        <v>22.6</v>
       </c>
       <c r="I170">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-10 12:08:07</v>
+        <v>2023-10-12 04:20:28</v>
       </c>
       <c r="B171">
-        <v>23.99</v>
+        <v>25</v>
       </c>
       <c r="C171">
-        <v>31.59</v>
+        <v>31.2</v>
       </c>
       <c r="D171">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E171">
         <v>0.01</v>
@@ -5176,27 +5176,27 @@
         <v>0.01</v>
       </c>
       <c r="G171">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H171">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="I171">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-10 15:50:08</v>
+        <v>2023-10-12 08:01:31</v>
       </c>
       <c r="B172">
-        <v>23.79</v>
+        <v>24.4</v>
       </c>
       <c r="C172">
-        <v>31.59</v>
+        <v>31.2</v>
       </c>
       <c r="D172">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="E172">
         <v>0.01</v>
@@ -5205,27 +5205,27 @@
         <v>0.01</v>
       </c>
       <c r="G172">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H172">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="I172">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-10 19:28:50</v>
+        <v>2023-10-12 11:40:58</v>
       </c>
       <c r="B173">
-        <v>23.58</v>
+        <v>24.68</v>
       </c>
       <c r="C173">
-        <v>31.59</v>
+        <v>31.2</v>
       </c>
       <c r="D173">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E173">
         <v>0.01</v>
@@ -5237,21 +5237,21 @@
         <v>99</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="I173">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-10 23:09:38</v>
+        <v>2023-10-12 15:17:13</v>
       </c>
       <c r="B174">
-        <v>24</v>
+        <v>24.79</v>
       </c>
       <c r="C174">
-        <v>31.59</v>
+        <v>31.2</v>
       </c>
       <c r="D174">
         <v>256</v>
@@ -5263,24 +5263,24 @@
         <v>0.01</v>
       </c>
       <c r="G174">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H174">
-        <v>22.2</v>
+        <v>22.9</v>
       </c>
       <c r="I174">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-11 02:49:41</v>
+        <v>2023-10-12 18:53:27</v>
       </c>
       <c r="B175">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="C175">
-        <v>32.36</v>
+        <v>31.2</v>
       </c>
       <c r="D175">
         <v>256</v>
@@ -5292,27 +5292,27 @@
         <v>0.01</v>
       </c>
       <c r="G175">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H175">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="I175">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-11 06:29:35</v>
+        <v>2023-10-12 22:31:33</v>
       </c>
       <c r="B176">
-        <v>23.99</v>
+        <v>24.5</v>
       </c>
       <c r="C176">
-        <v>32.36</v>
+        <v>31.2</v>
       </c>
       <c r="D176">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E176">
         <v>0.01</v>
@@ -5321,27 +5321,27 @@
         <v>0.01</v>
       </c>
       <c r="G176">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H176">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="I176">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-11 10:08:29</v>
+        <v>2023-10-13 02:11:32</v>
       </c>
       <c r="B177">
-        <v>22.9</v>
+        <v>25</v>
       </c>
       <c r="C177">
-        <v>32.36</v>
+        <v>31.39</v>
       </c>
       <c r="D177">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="E177">
         <v>0.01</v>
@@ -5350,27 +5350,27 @@
         <v>0.01</v>
       </c>
       <c r="G177">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H177">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="I177">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-11 13:46:28</v>
+        <v>2023-10-13 05:52:38</v>
       </c>
       <c r="B178">
-        <v>24.18</v>
+        <v>24.9</v>
       </c>
       <c r="C178">
-        <v>32.36</v>
+        <v>31.39</v>
       </c>
       <c r="D178">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E178">
         <v>0.01</v>
@@ -5379,27 +5379,27 @@
         <v>0.01</v>
       </c>
       <c r="G178">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H178">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="I178">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-11 17:20:56</v>
+        <v>2023-10-13 09:31:37</v>
       </c>
       <c r="B179">
-        <v>23.7</v>
+        <v>24.79</v>
       </c>
       <c r="C179">
-        <v>32.36</v>
+        <v>31.39</v>
       </c>
       <c r="D179">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E179">
         <v>0.01</v>
@@ -5411,24 +5411,24 @@
         <v>101</v>
       </c>
       <c r="H179">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="I179">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-11 21:00:28</v>
+        <v>2023-10-13 13:12:02</v>
       </c>
       <c r="B180">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="C180">
-        <v>32.36</v>
+        <v>31.39</v>
       </c>
       <c r="D180">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="E180">
         <v>0.01</v>
@@ -5437,27 +5437,27 @@
         <v>0.01</v>
       </c>
       <c r="G180">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H180">
-        <v>22.3</v>
+        <v>23.6</v>
       </c>
       <c r="I180">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-12 00:39:18</v>
+        <v>2023-10-13 16:53:00</v>
       </c>
       <c r="B181">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="C181">
-        <v>32.36</v>
+        <v>31.39</v>
       </c>
       <c r="D181">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E181">
         <v>0.01</v>
@@ -5469,24 +5469,24 @@
         <v>99</v>
       </c>
       <c r="H181">
-        <v>22.6</v>
+        <v>24</v>
       </c>
       <c r="I181">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-12 04:20:28</v>
+        <v>2023-10-13 20:33:50</v>
       </c>
       <c r="B182">
         <v>25</v>
       </c>
       <c r="C182">
-        <v>31.2</v>
+        <v>31.39</v>
       </c>
       <c r="D182">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E182">
         <v>0.01</v>
@@ -5498,24 +5498,24 @@
         <v>99</v>
       </c>
       <c r="H182">
-        <v>22.4</v>
+        <v>23.9</v>
       </c>
       <c r="I182">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-12 08:01:31</v>
+        <v>2023-10-14 00:12:17</v>
       </c>
       <c r="B183">
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="C183">
-        <v>31.2</v>
+        <v>31.39</v>
       </c>
       <c r="D183">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E183">
         <v>0.01</v>
@@ -5524,10 +5524,10 @@
         <v>0.01</v>
       </c>
       <c r="G183">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H183">
-        <v>22.4</v>
+        <v>24.1</v>
       </c>
       <c r="I183">
         <v>26</v>
@@ -5535,16 +5535,16 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-12 11:40:58</v>
+        <v>2023-10-14 03:50:23</v>
       </c>
       <c r="B184">
-        <v>24.68</v>
+        <v>25.25</v>
       </c>
       <c r="C184">
-        <v>31.2</v>
+        <v>33.09</v>
       </c>
       <c r="D184">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="E184">
         <v>0.01</v>
@@ -5553,27 +5553,27 @@
         <v>0.01</v>
       </c>
       <c r="G184">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H184">
-        <v>22.7</v>
+        <v>24.1</v>
       </c>
       <c r="I184">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-12 15:17:13</v>
+        <v>2023-10-14 07:31:13</v>
       </c>
       <c r="B185">
-        <v>24.79</v>
+        <v>25.3</v>
       </c>
       <c r="C185">
-        <v>31.2</v>
+        <v>33.09</v>
       </c>
       <c r="D185">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="E185">
         <v>0.01</v>
@@ -5582,27 +5582,27 @@
         <v>0.01</v>
       </c>
       <c r="G185">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H185">
-        <v>22.9</v>
+        <v>24.1</v>
       </c>
       <c r="I185">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-12 18:53:27</v>
+        <v>2023-10-14 11:11:35</v>
       </c>
       <c r="B186">
-        <v>24.1</v>
+        <v>25.39</v>
       </c>
       <c r="C186">
-        <v>31.2</v>
+        <v>33.09</v>
       </c>
       <c r="D186">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="E186">
         <v>0.01</v>
@@ -5611,27 +5611,27 @@
         <v>0.01</v>
       </c>
       <c r="G186">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H186">
-        <v>22.8</v>
+        <v>24.3</v>
       </c>
       <c r="I186">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-12 22:31:33</v>
+        <v>2023-10-14 14:51:54</v>
       </c>
       <c r="B187">
-        <v>24.5</v>
+        <v>25.39</v>
       </c>
       <c r="C187">
-        <v>31.2</v>
+        <v>33.09</v>
       </c>
       <c r="D187">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="E187">
         <v>0.01</v>
@@ -5640,56 +5640,56 @@
         <v>0.01</v>
       </c>
       <c r="G187">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H187">
-        <v>23</v>
+        <v>24.4</v>
       </c>
       <c r="I187">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-13 02:11:32</v>
+        <v>2023-10-14 18:31:22</v>
       </c>
       <c r="B188">
+        <v>24.9</v>
+      </c>
+      <c r="C188">
+        <v>33.09</v>
+      </c>
+      <c r="D188">
+        <v>234</v>
+      </c>
+      <c r="E188">
+        <v>0.01</v>
+      </c>
+      <c r="F188">
+        <v>0.01</v>
+      </c>
+      <c r="G188">
+        <v>98</v>
+      </c>
+      <c r="H188">
+        <v>23.9</v>
+      </c>
+      <c r="I188">
         <v>25</v>
-      </c>
-      <c r="C188">
-        <v>31.39</v>
-      </c>
-      <c r="D188">
-        <v>238</v>
-      </c>
-      <c r="E188">
-        <v>0.01</v>
-      </c>
-      <c r="F188">
-        <v>0.01</v>
-      </c>
-      <c r="G188">
-        <v>99</v>
-      </c>
-      <c r="H188">
-        <v>23.1</v>
-      </c>
-      <c r="I188">
-        <v>28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-13 05:52:38</v>
+        <v>2023-10-14 22:12:06</v>
       </c>
       <c r="B189">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="C189">
-        <v>31.39</v>
+        <v>33.09</v>
       </c>
       <c r="D189">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E189">
         <v>0.01</v>
@@ -5698,27 +5698,27 @@
         <v>0.01</v>
       </c>
       <c r="G189">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H189">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="I189">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-13 09:31:37</v>
+        <v>2023-10-15 01:50:40</v>
       </c>
       <c r="B190">
-        <v>24.79</v>
+        <v>25</v>
       </c>
       <c r="C190">
-        <v>31.39</v>
+        <v>33.09</v>
       </c>
       <c r="D190">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E190">
         <v>0.01</v>
@@ -5727,27 +5727,27 @@
         <v>0.01</v>
       </c>
       <c r="G190">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H190">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="I190">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-13 13:12:02</v>
+        <v>2023-10-15 05:22:45</v>
       </c>
       <c r="B191">
-        <v>25</v>
+        <v>25.29</v>
       </c>
       <c r="C191">
-        <v>31.39</v>
+        <v>33.47</v>
       </c>
       <c r="D191">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E191">
         <v>0.01</v>
@@ -5756,27 +5756,27 @@
         <v>0.01</v>
       </c>
       <c r="G191">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H191">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="I191">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-13 16:53:00</v>
+        <v>2023-10-15 05:27:54</v>
       </c>
       <c r="B192">
-        <v>25.1</v>
+        <v>25.29</v>
       </c>
       <c r="C192">
-        <v>31.39</v>
+        <v>33.47</v>
       </c>
       <c r="D192">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E192">
         <v>0.01</v>
@@ -5785,27 +5785,27 @@
         <v>0.01</v>
       </c>
       <c r="G192">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H192">
-        <v>24</v>
+        <v>23.4</v>
       </c>
       <c r="I192">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-13 20:33:50</v>
+        <v>2023-10-15 09:03:50</v>
       </c>
       <c r="B193">
-        <v>25</v>
+        <v>24.4</v>
       </c>
       <c r="C193">
-        <v>31.39</v>
+        <v>33.47</v>
       </c>
       <c r="D193">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E193">
         <v>0.01</v>
@@ -5814,27 +5814,27 @@
         <v>0.01</v>
       </c>
       <c r="G193">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H193">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="I193">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-14 00:12:17</v>
+        <v>2023-10-15 12:42:29</v>
       </c>
       <c r="B194">
         <v>25</v>
       </c>
       <c r="C194">
-        <v>31.39</v>
+        <v>33.47</v>
       </c>
       <c r="D194">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E194">
         <v>0.01</v>
@@ -5846,24 +5846,24 @@
         <v>98</v>
       </c>
       <c r="H194">
-        <v>24.1</v>
+        <v>23.6</v>
       </c>
       <c r="I194">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-14 03:50:23</v>
+        <v>2023-10-15 16:20:47</v>
       </c>
       <c r="B195">
-        <v>25.25</v>
+        <v>24</v>
       </c>
       <c r="C195">
-        <v>33.09</v>
+        <v>33.47</v>
       </c>
       <c r="D195">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="E195">
         <v>0.01</v>
@@ -5872,27 +5872,27 @@
         <v>0.01</v>
       </c>
       <c r="G195">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H195">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="I195">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-14 07:31:13</v>
+        <v>2023-10-15 19:58:09</v>
       </c>
       <c r="B196">
-        <v>25.3</v>
+        <v>24.9</v>
       </c>
       <c r="C196">
-        <v>33.09</v>
+        <v>33.47</v>
       </c>
       <c r="D196">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E196">
         <v>0.01</v>
@@ -5901,27 +5901,27 @@
         <v>0.01</v>
       </c>
       <c r="G196">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H196">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="I196">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-14 11:11:35</v>
+        <v>2023-10-15 23:37:01</v>
       </c>
       <c r="B197">
-        <v>25.39</v>
+        <v>25</v>
       </c>
       <c r="C197">
-        <v>33.09</v>
+        <v>33.47</v>
       </c>
       <c r="D197">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E197">
         <v>0.01</v>
@@ -5930,27 +5930,27 @@
         <v>0.01</v>
       </c>
       <c r="G197">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H197">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="I197">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-14 14:51:54</v>
+        <v>2023-10-15 23:41:44</v>
       </c>
       <c r="B198">
-        <v>25.39</v>
+        <v>25</v>
       </c>
       <c r="C198">
-        <v>33.09</v>
+        <v>33.47</v>
       </c>
       <c r="D198">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="E198">
         <v>0.01</v>
@@ -5959,27 +5959,27 @@
         <v>0.01</v>
       </c>
       <c r="G198">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H198">
-        <v>24.4</v>
+        <v>23.6</v>
       </c>
       <c r="I198">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-14 18:31:22</v>
+        <v>2023-10-16 03:21:37</v>
       </c>
       <c r="B199">
-        <v>24.9</v>
+        <v>25.38</v>
       </c>
       <c r="C199">
-        <v>33.09</v>
+        <v>31.85</v>
       </c>
       <c r="D199">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E199">
         <v>0.01</v>
@@ -5991,24 +5991,24 @@
         <v>98</v>
       </c>
       <c r="H199">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="I199">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-14 22:12:06</v>
+        <v>2023-10-16 06:57:23</v>
       </c>
       <c r="B200">
-        <v>24.5</v>
+        <v>25.17</v>
       </c>
       <c r="C200">
-        <v>33.09</v>
+        <v>31.85</v>
       </c>
       <c r="D200">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E200">
         <v>0.01</v>
@@ -6017,27 +6017,27 @@
         <v>0.01</v>
       </c>
       <c r="G200">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H200">
-        <v>23.3</v>
+        <v>23.8</v>
       </c>
       <c r="I200">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-15 01:50:40</v>
+        <v>2023-10-16 07:02:37</v>
       </c>
       <c r="B201">
-        <v>25</v>
+        <v>25.17</v>
       </c>
       <c r="C201">
-        <v>33.09</v>
+        <v>31.85</v>
       </c>
       <c r="D201">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E201">
         <v>0.01</v>
@@ -6046,27 +6046,27 @@
         <v>0.01</v>
       </c>
       <c r="G201">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H201">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="I201">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-15 05:22:45</v>
+        <v>2023-10-16 10:41:39</v>
       </c>
       <c r="B202">
-        <v>25.29</v>
+        <v>24.8</v>
       </c>
       <c r="C202">
-        <v>33.47</v>
+        <v>31.85</v>
       </c>
       <c r="D202">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E202">
         <v>0.01</v>
@@ -6078,24 +6078,24 @@
         <v>98</v>
       </c>
       <c r="H202">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="I202">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-15 05:27:54</v>
+        <v>2023-10-16 14:15:50</v>
       </c>
       <c r="B203">
-        <v>25.29</v>
+        <v>25.07</v>
       </c>
       <c r="C203">
-        <v>33.47</v>
+        <v>31.85</v>
       </c>
       <c r="D203">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E203">
         <v>0.01</v>
@@ -6107,7 +6107,7 @@
         <v>98</v>
       </c>
       <c r="H203">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="I203">
         <v>23</v>
@@ -6115,16 +6115,16 @@
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-15 09:03:50</v>
+        <v>2023-10-16 14:21:41</v>
       </c>
       <c r="B204">
-        <v>24.4</v>
+        <v>25.07</v>
       </c>
       <c r="C204">
-        <v>33.47</v>
+        <v>31.85</v>
       </c>
       <c r="D204">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E204">
         <v>0.01</v>
@@ -6136,24 +6136,24 @@
         <v>98</v>
       </c>
       <c r="H204">
-        <v>23.6</v>
+        <v>24.1</v>
       </c>
       <c r="I204">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-15 12:42:29</v>
+        <v>2023-10-16 17:56:26</v>
       </c>
       <c r="B205">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="C205">
-        <v>33.47</v>
+        <v>31.85</v>
       </c>
       <c r="D205">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E205">
         <v>0.01</v>
@@ -6165,24 +6165,24 @@
         <v>98</v>
       </c>
       <c r="H205">
-        <v>23.6</v>
+        <v>23.9</v>
       </c>
       <c r="I205">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-15 16:20:47</v>
+        <v>2023-10-16 21:35:42</v>
       </c>
       <c r="B206">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="C206">
-        <v>33.47</v>
+        <v>31.85</v>
       </c>
       <c r="D206">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E206">
         <v>0.01</v>
@@ -6191,27 +6191,27 @@
         <v>0.01</v>
       </c>
       <c r="G206">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H206">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="I206">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-15 19:58:09</v>
+        <v>2023-10-17 01:14:17</v>
       </c>
       <c r="B207">
-        <v>24.9</v>
+        <v>25.27</v>
       </c>
       <c r="C207">
-        <v>33.47</v>
+        <v>31.85</v>
       </c>
       <c r="D207">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E207">
         <v>0.01</v>
@@ -6220,10 +6220,10 @@
         <v>0.01</v>
       </c>
       <c r="G207">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H207">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="I207">
         <v>24</v>
@@ -6231,16 +6231,16 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-15 23:37:01</v>
+        <v>2023-10-17 04:54:27</v>
       </c>
       <c r="B208">
-        <v>25</v>
+        <v>25.38</v>
       </c>
       <c r="C208">
-        <v>33.47</v>
+        <v>32.89</v>
       </c>
       <c r="D208">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E208">
         <v>0.01</v>
@@ -6249,10 +6249,10 @@
         <v>0.01</v>
       </c>
       <c r="G208">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H208">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="I208">
         <v>25</v>
@@ -6260,16 +6260,16 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-15 23:41:44</v>
+        <v>2023-10-17 08:36:07</v>
       </c>
       <c r="B209">
         <v>25</v>
       </c>
       <c r="C209">
-        <v>33.47</v>
+        <v>32.89</v>
       </c>
       <c r="D209">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E209">
         <v>0.01</v>
@@ -6278,27 +6278,27 @@
         <v>0.01</v>
       </c>
       <c r="G209">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H209">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="I209">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>2023-10-16 03:21:37</v>
+        <v>2023-10-17 12:15:28</v>
       </c>
       <c r="B210">
-        <v>25.38</v>
+        <v>24.9</v>
       </c>
       <c r="C210">
-        <v>31.85</v>
+        <v>32.89</v>
       </c>
       <c r="D210">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E210">
         <v>0.01</v>
@@ -6307,10 +6307,10 @@
         <v>0.01</v>
       </c>
       <c r="G210">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H210">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="I210">
         <v>26</v>
@@ -6318,16 +6318,16 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>2023-10-16 06:57:23</v>
+        <v>2023-10-17 15:54:17</v>
       </c>
       <c r="B211">
-        <v>25.17</v>
+        <v>24.5</v>
       </c>
       <c r="C211">
-        <v>31.85</v>
+        <v>32.89</v>
       </c>
       <c r="D211">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E211">
         <v>0.01</v>
@@ -6336,27 +6336,27 @@
         <v>0.01</v>
       </c>
       <c r="G211">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H211">
-        <v>23.8</v>
+        <v>23.1</v>
       </c>
       <c r="I211">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>2023-10-16 07:02:37</v>
+        <v>2023-10-17 19:31:01</v>
       </c>
       <c r="B212">
-        <v>25.17</v>
+        <v>24.6</v>
       </c>
       <c r="C212">
-        <v>31.85</v>
+        <v>32.89</v>
       </c>
       <c r="D212">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E212">
         <v>0.01</v>
@@ -6365,27 +6365,27 @@
         <v>0.01</v>
       </c>
       <c r="G212">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H212">
-        <v>23.8</v>
+        <v>23</v>
       </c>
       <c r="I212">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>2023-10-16 10:41:39</v>
+        <v>2023-10-17 23:08:40</v>
       </c>
       <c r="B213">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="C213">
-        <v>31.85</v>
+        <v>32.89</v>
       </c>
       <c r="D213">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E213">
         <v>0.01</v>
@@ -6394,27 +6394,27 @@
         <v>0.01</v>
       </c>
       <c r="G213">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H213">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="I213">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>2023-10-16 14:15:50</v>
+        <v>2023-10-17 23:14:31</v>
       </c>
       <c r="B214">
-        <v>25.07</v>
+        <v>25.3</v>
       </c>
       <c r="C214">
-        <v>31.85</v>
+        <v>32.89</v>
       </c>
       <c r="D214">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="E214">
         <v>0.01</v>
@@ -6423,10 +6423,10 @@
         <v>0.01</v>
       </c>
       <c r="G214">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H214">
-        <v>24.1</v>
+        <v>23.1</v>
       </c>
       <c r="I214">
         <v>23</v>
@@ -6434,16 +6434,16 @@
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>2023-10-16 14:21:41</v>
+        <v>2023-10-18 02:55:38</v>
       </c>
       <c r="B215">
-        <v>25.07</v>
+        <v>25.3</v>
       </c>
       <c r="C215">
-        <v>31.85</v>
+        <v>31.91</v>
       </c>
       <c r="D215">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E215">
         <v>0.01</v>
@@ -6452,24 +6452,24 @@
         <v>0.01</v>
       </c>
       <c r="G215">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H215">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="I215">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>2023-10-16 17:56:26</v>
+        <v>2023-10-18 06:33:07</v>
       </c>
       <c r="B216">
-        <v>24.1</v>
+        <v>25.29</v>
       </c>
       <c r="C216">
-        <v>31.85</v>
+        <v>31.91</v>
       </c>
       <c r="D216">
         <v>259</v>
@@ -6481,27 +6481,27 @@
         <v>0.01</v>
       </c>
       <c r="G216">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H216">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="I216">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>2023-10-16 21:35:42</v>
+        <v>2023-10-18 10:10:40</v>
       </c>
       <c r="B217">
-        <v>24.8</v>
+        <v>25.19</v>
       </c>
       <c r="C217">
-        <v>31.85</v>
+        <v>31.91</v>
       </c>
       <c r="D217">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E217">
         <v>0.01</v>
@@ -6510,27 +6510,27 @@
         <v>0.01</v>
       </c>
       <c r="G217">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H217">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="I217">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>2023-10-17 01:14:17</v>
+        <v>2023-10-18 13:48:22</v>
       </c>
       <c r="B218">
-        <v>25.27</v>
+        <v>25.49</v>
       </c>
       <c r="C218">
-        <v>31.85</v>
+        <v>31.91</v>
       </c>
       <c r="D218">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E218">
         <v>0.01</v>
@@ -6539,27 +6539,27 @@
         <v>0.01</v>
       </c>
       <c r="G218">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H218">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="I218">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>2023-10-17 04:54:27</v>
+        <v>2023-10-18 13:54:53</v>
       </c>
       <c r="B219">
-        <v>25.38</v>
+        <v>25.49</v>
       </c>
       <c r="C219">
-        <v>32.89</v>
+        <v>31.91</v>
       </c>
       <c r="D219">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="E219">
         <v>0.01</v>
@@ -6568,27 +6568,27 @@
         <v>0.01</v>
       </c>
       <c r="G219">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H219">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="I219">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>2023-10-17 08:36:07</v>
+        <v>2023-10-18 17:35:24</v>
       </c>
       <c r="B220">
-        <v>25</v>
+        <v>23.8</v>
       </c>
       <c r="C220">
-        <v>32.89</v>
+        <v>31.91</v>
       </c>
       <c r="D220">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="E220">
         <v>0.01</v>
@@ -6597,27 +6597,27 @@
         <v>0.01</v>
       </c>
       <c r="G220">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H220">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="I220">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>2023-10-17 12:15:28</v>
+        <v>2023-10-18 21:12:07</v>
       </c>
       <c r="B221">
-        <v>24.9</v>
+        <v>23.5</v>
       </c>
       <c r="C221">
-        <v>32.89</v>
+        <v>31.91</v>
       </c>
       <c r="D221">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E221">
         <v>0.01</v>
@@ -6626,13 +6626,13 @@
         <v>0.01</v>
       </c>
       <c r="G221">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H221">
-        <v>24.3</v>
+        <v>22.8</v>
       </c>
       <c r="I221">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
